--- a/nriss-patch-1/ig/StructureDefinition-tddui-patient.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T14:22:41+00:00</t>
+    <t>2025-08-01T06:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-1/ig/StructureDefinition-tddui-patient.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:26:01+00:00</t>
+    <t>2025-08-01T06:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-1/ig/StructureDefinition-tddui-patient.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6437" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6437" uniqueCount="823">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:22:07+00:00</t>
+    <t>2025-12-19T09:47:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,7 +446,7 @@
     <t>Patient.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -497,7 +497,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -521,7 +521,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -564,7 +564,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -640,7 +640,7 @@
     <t>nationality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality|2.1.0}
 </t>
   </si>
   <si>
@@ -660,7 +660,7 @@
     <t>identityReliability</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability|2.1.0}
 </t>
   </si>
   <si>
@@ -676,7 +676,7 @@
     <t>deathPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place|2.1.0}
 </t>
   </si>
   <si>
@@ -692,7 +692,7 @@
     <t>birthdateUpdateIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator|2.1.0}
 </t>
   </si>
   <si>
@@ -705,7 +705,7 @@
     <t>birthPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-birthPlace}
+    <t xml:space="preserve">Extension {patient-birthPlace|5.2.0}
 </t>
   </si>
   <si>
@@ -754,7 +754,7 @@
     <t>Patient.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
 </t>
   </si>
   <si>
@@ -794,7 +794,7 @@
     <t>inseeCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code|2.1.0}
 </t>
   </si>
   <si>
@@ -1203,7 +1203,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-patient-identifier-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-patient-identifier-vs|2.2.0-ballot</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1284,7 +1284,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1344,7 +1344,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Patient.identifier:NSS.system</t>
@@ -1581,9 +1581,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
-  </si>
-  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1594,10 +1591,6 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -1634,7 +1627,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name}
+    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1887,7 +1880,7 @@
     <t>birth-list-given-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name|2.1.0}
 </t>
   </si>
   <si>
@@ -1933,7 +1926,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
 </t>
   </si>
   <si>
@@ -1974,7 +1967,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS|2.1.0</t>
   </si>
   <si>
     <t>sexe</t>
@@ -2041,7 +2034,7 @@
     <t>tddui-birth-order</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-birth-order}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-birth-order|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -2109,7 +2102,7 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status|2.1.0</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -2212,7 +2205,7 @@
     <t>contactIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier|2.1.0}
 </t>
   </si>
   <si>
@@ -2228,7 +2221,7 @@
     <t>comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment|2.1.0}
 </t>
   </si>
   <si>
@@ -2270,7 +2263,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -2292,7 +2285,7 @@
     <t>The nature of the relationship. Rôle de la personne. Ex : personne de confiance, aidant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role|2.1.0</t>
   </si>
   <si>
     <t>Patient.contact.relationship:RelationType</t>
@@ -2304,13 +2297,13 @@
     <t>The nature of the relationship. Relation de la personne. Ex : Mère, époux, enfant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type|2.1.0</t>
   </si>
   <si>
     <t>Patient.contact.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.1.0}
 </t>
   </si>
   <si>
@@ -2500,7 +2493,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|PractitionerRole)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.1.0|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -2524,7 +2517,7 @@
     <t>Patient.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0)
 </t>
   </si>
   <si>
@@ -2575,7 +2568,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -2927,7 +2920,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="137.58984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2942,7 +2935,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.4921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
@@ -14925,7 +14918,7 @@
         <v>426</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>496</v>
+        <v>427</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14978,7 +14971,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>385</v>
@@ -15100,7 +15093,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>394</v>
@@ -15220,7 +15213,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>402</v>
@@ -15338,7 +15331,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>408</v>
@@ -15364,7 +15357,7 @@
         <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>501</v>
+        <v>409</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>410</v>
@@ -15458,10 +15451,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15484,26 +15477,26 @@
         <v>92</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="O105" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="N105" t="s" s="2">
+      <c r="P105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q105" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="O105" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="P105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q105" t="s" s="2">
-        <v>508</v>
-      </c>
       <c r="R105" t="s" s="2">
         <v>82</v>
       </c>
@@ -15547,7 +15540,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15565,13 +15558,13 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15582,10 +15575,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15608,19 +15601,19 @@
         <v>92</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15657,7 +15650,7 @@
         <v>82</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
@@ -15667,7 +15660,7 @@
         <v>118</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15685,16 +15678,16 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO106" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>82</v>
@@ -15702,13 +15695,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
@@ -15730,19 +15723,19 @@
         <v>92</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15791,7 +15784,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15809,16 +15802,16 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO107" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AP107" t="s" s="2">
         <v>82</v>
@@ -15826,10 +15819,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15944,10 +15937,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16064,10 +16057,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16093,16 +16086,16 @@
         <v>171</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="N110" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -16130,28 +16123,28 @@
         <v>261</v>
       </c>
       <c r="Y110" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF110" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -16178,7 +16171,7 @@
         <v>82</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AP110" t="s" s="2">
         <v>82</v>
@@ -16186,10 +16179,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16215,13 +16208,13 @@
         <v>105</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N111" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>282</v>
@@ -16273,7 +16266,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -16300,7 +16293,7 @@
         <v>82</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AP111" t="s" s="2">
         <v>82</v>
@@ -16308,14 +16301,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -16337,13 +16330,13 @@
         <v>105</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N112" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -16393,7 +16386,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16408,19 +16401,19 @@
         <v>103</v>
       </c>
       <c r="AK112" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO112" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="AP112" t="s" s="2">
         <v>82</v>
@@ -16428,14 +16421,14 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -16457,13 +16450,13 @@
         <v>105</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16513,7 +16506,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16528,19 +16521,19 @@
         <v>103</v>
       </c>
       <c r="AK113" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO113" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>82</v>
@@ -16548,10 +16541,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16577,10 +16570,10 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -16631,7 +16624,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16649,7 +16642,7 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>82</v>
@@ -16658,7 +16651,7 @@
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16666,10 +16659,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16695,10 +16688,10 @@
         <v>105</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -16749,7 +16742,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16767,7 +16760,7 @@
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>82</v>
@@ -16776,7 +16769,7 @@
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -16784,10 +16777,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16813,14 +16806,14 @@
         <v>341</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16869,7 +16862,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16896,7 +16889,7 @@
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -16904,13 +16897,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>82</v>
@@ -16932,19 +16925,19 @@
         <v>92</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16993,7 +16986,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -17011,16 +17004,16 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO117" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -17028,10 +17021,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17146,10 +17139,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17266,13 +17259,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>82</v>
@@ -17294,13 +17287,13 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -17366,7 +17359,7 @@
         <v>120</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>82</v>
@@ -17386,10 +17379,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17415,16 +17408,16 @@
         <v>171</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="N121" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17452,28 +17445,28 @@
         <v>261</v>
       </c>
       <c r="Y121" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF121" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17500,7 +17493,7 @@
         <v>82</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>82</v>
@@ -17508,10 +17501,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17537,13 +17530,13 @@
         <v>105</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N122" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>282</v>
@@ -17595,7 +17588,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17622,7 +17615,7 @@
         <v>82</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AP122" t="s" s="2">
         <v>82</v>
@@ -17630,14 +17623,14 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -17659,13 +17652,13 @@
         <v>105</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N123" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -17715,7 +17708,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17730,10 +17723,10 @@
         <v>103</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>82</v>
@@ -17742,7 +17735,7 @@
         <v>82</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AP123" t="s" s="2">
         <v>82</v>
@@ -17750,14 +17743,14 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
@@ -17779,13 +17772,13 @@
         <v>105</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N124" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -17835,7 +17828,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17850,10 +17843,10 @@
         <v>103</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>82</v>
@@ -17862,7 +17855,7 @@
         <v>82</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AP124" t="s" s="2">
         <v>82</v>
@@ -17870,10 +17863,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17899,10 +17892,10 @@
         <v>105</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -17953,7 +17946,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17968,10 +17961,10 @@
         <v>103</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>82</v>
@@ -17980,7 +17973,7 @@
         <v>82</v>
       </c>
       <c r="AO125" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AP125" t="s" s="2">
         <v>82</v>
@@ -17988,10 +17981,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18017,10 +18010,10 @@
         <v>105</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18071,7 +18064,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -18089,7 +18082,7 @@
         <v>82</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>82</v>
@@ -18098,7 +18091,7 @@
         <v>82</v>
       </c>
       <c r="AO126" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AP126" t="s" s="2">
         <v>82</v>
@@ -18106,10 +18099,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18135,14 +18128,14 @@
         <v>341</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -18191,7 +18184,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18218,7 +18211,7 @@
         <v>82</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>82</v>
@@ -18226,10 +18219,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18252,19 +18245,19 @@
         <v>82</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="O128" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18313,7 +18306,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18325,22 +18318,22 @@
         <v>204</v>
       </c>
       <c r="AJ128" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO128" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="AP128" t="s" s="2">
         <v>82</v>
@@ -18348,10 +18341,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18377,16 +18370,16 @@
         <v>171</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="N129" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="O129" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18415,7 +18408,7 @@
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18433,7 +18426,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18448,19 +18441,19 @@
         <v>103</v>
       </c>
       <c r="AK129" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AM129" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="AL129" t="s" s="2">
+      <c r="AN129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO129" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="AP129" t="s" s="2">
         <v>82</v>
@@ -18468,10 +18461,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18494,19 +18487,19 @@
         <v>92</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18555,7 +18548,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18570,30 +18563,30 @@
         <v>103</v>
       </c>
       <c r="AK130" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AM130" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="AL130" t="s" s="2">
+      <c r="AN130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO130" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="AM130" t="s" s="2">
+      <c r="AP130" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO130" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="AP130" t="s" s="2">
-        <v>638</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18619,10 +18612,10 @@
         <v>105</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -18708,10 +18701,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18824,13 +18817,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B133" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="C133" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="C133" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>82</v>
@@ -18852,13 +18845,13 @@
         <v>82</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -18924,7 +18917,7 @@
         <v>120</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>82</v>
@@ -18944,10 +18937,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18970,13 +18963,13 @@
         <v>82</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -19027,7 +19020,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -19062,10 +19055,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19088,19 +19081,19 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="L135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -19149,7 +19142,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19167,7 +19160,7 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>109</v>
@@ -19176,7 +19169,7 @@
         <v>82</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AP135" t="s" s="2">
         <v>82</v>
@@ -19184,10 +19177,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19222,7 +19215,7 @@
         <v>240</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>82</v>
@@ -19271,7 +19264,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -19306,10 +19299,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19335,14 +19328,14 @@
         <v>377</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>82</v>
@@ -19371,7 +19364,7 @@
       </c>
       <c r="Y137" s="2"/>
       <c r="Z137" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>82</v>
@@ -19389,7 +19382,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19407,16 +19400,16 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AN137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO137" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO137" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="AP137" t="s" s="2">
         <v>82</v>
@@ -19424,10 +19417,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19450,19 +19443,19 @@
         <v>82</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="L138" t="s" s="2">
+      <c r="N138" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="O138" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19511,7 +19504,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19529,7 +19522,7 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>109</v>
@@ -19538,7 +19531,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19546,10 +19539,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19572,19 +19565,19 @@
         <v>82</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="M139" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="L139" t="s" s="2">
+      <c r="N139" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="M139" t="s" s="2">
+      <c r="O139" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19633,7 +19626,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19651,7 +19644,7 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>109</v>
@@ -19660,7 +19653,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19668,10 +19661,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19694,19 +19687,19 @@
         <v>82</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M140" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="L140" t="s" s="2">
+      <c r="N140" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="M140" t="s" s="2">
+      <c r="O140" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19755,7 +19748,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19767,13 +19760,13 @@
         <v>82</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>109</v>
@@ -19790,10 +19783,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19908,10 +19901,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20024,13 +20017,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B143" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="C143" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="C143" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>82</v>
@@ -20052,13 +20045,13 @@
         <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -20144,13 +20137,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D144" t="s" s="2">
         <v>82</v>
@@ -20172,13 +20165,13 @@
         <v>82</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -20264,14 +20257,14 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
@@ -20293,10 +20286,10 @@
         <v>112</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N145" t="s" s="2">
         <v>115</v>
@@ -20351,7 +20344,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20386,10 +20379,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20415,14 +20408,14 @@
         <v>377</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>82</v>
@@ -20450,16 +20443,16 @@
         <v>153</v>
       </c>
       <c r="Y146" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB146" t="s" s="2">
         <v>716</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="AC146" s="2"/>
       <c r="AD146" t="s" s="2">
@@ -20469,7 +20462,7 @@
         <v>118</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20487,7 +20480,7 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>109</v>
@@ -20496,7 +20489,7 @@
         <v>82</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AP146" t="s" s="2">
         <v>82</v>
@@ -20504,13 +20497,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D147" t="s" s="2">
         <v>82</v>
@@ -20535,14 +20528,14 @@
         <v>377</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20571,7 +20564,7 @@
       </c>
       <c r="Y147" s="2"/>
       <c r="Z147" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>82</v>
@@ -20589,7 +20582,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20607,7 +20600,7 @@
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>109</v>
@@ -20616,7 +20609,7 @@
         <v>82</v>
       </c>
       <c r="AO147" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AP147" t="s" s="2">
         <v>82</v>
@@ -20624,13 +20617,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>82</v>
@@ -20655,14 +20648,14 @@
         <v>377</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>82</v>
@@ -20691,7 +20684,7 @@
       </c>
       <c r="Y148" s="2"/>
       <c r="Z148" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>82</v>
@@ -20709,7 +20702,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20727,7 +20720,7 @@
         <v>82</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>109</v>
@@ -20736,7 +20729,7 @@
         <v>82</v>
       </c>
       <c r="AO148" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AP148" t="s" s="2">
         <v>82</v>
@@ -20744,10 +20737,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20770,19 +20763,19 @@
         <v>82</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="L149" t="s" s="2">
+      <c r="N149" t="s" s="2">
         <v>731</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="O149" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>734</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>82</v>
@@ -20831,7 +20824,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20849,7 +20842,7 @@
         <v>82</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>82</v>
@@ -20858,7 +20851,7 @@
         <v>82</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>82</v>
@@ -20866,10 +20859,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20892,19 +20885,19 @@
         <v>82</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L150" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M150" t="s" s="2">
+      <c r="N150" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="O150" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>82</v>
@@ -20953,7 +20946,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20965,22 +20958,22 @@
         <v>204</v>
       </c>
       <c r="AJ150" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AM150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO150" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN150" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO150" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -20988,10 +20981,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21014,17 +21007,17 @@
         <v>82</v>
       </c>
       <c r="K151" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="M151" t="s" s="2">
         <v>740</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>742</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -21073,7 +21066,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21091,7 +21084,7 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>109</v>
@@ -21100,7 +21093,7 @@
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21108,10 +21101,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21137,14 +21130,14 @@
         <v>171</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21172,10 +21165,10 @@
         <v>261</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AA152" t="s" s="2">
         <v>82</v>
@@ -21193,7 +21186,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21211,7 +21204,7 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>109</v>
@@ -21220,7 +21213,7 @@
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21228,10 +21221,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21257,14 +21250,14 @@
         <v>409</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>82</v>
@@ -21313,7 +21306,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21322,7 +21315,7 @@
         <v>91</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>103</v>
@@ -21331,7 +21324,7 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>109</v>
@@ -21340,7 +21333,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21348,10 +21341,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21377,10 +21370,10 @@
         <v>341</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21431,7 +21424,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21449,7 +21442,7 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>109</v>
@@ -21466,10 +21459,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21492,19 +21485,19 @@
         <v>82</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="N155" t="s" s="2">
         <v>765</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="O155" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>768</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21553,7 +21546,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21571,10 +21564,10 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>82</v>
@@ -21588,10 +21581,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21706,10 +21699,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21826,14 +21819,14 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21855,10 +21848,10 @@
         <v>112</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>115</v>
@@ -21913,7 +21906,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21948,10 +21941,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21977,16 +21970,16 @@
         <v>377</v>
       </c>
       <c r="L159" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="N159" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="M159" t="s" s="2">
+      <c r="O159" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
@@ -22035,7 +22028,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>91</v>
@@ -22053,16 +22046,16 @@
         <v>82</v>
       </c>
       <c r="AL159" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="AM159" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="AN159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO159" t="s" s="2">
         <v>779</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="AN159" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO159" t="s" s="2">
-        <v>781</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22070,10 +22063,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22096,19 +22089,19 @@
         <v>82</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L160" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="N160" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="M160" t="s" s="2">
+      <c r="O160" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>785</v>
-      </c>
-      <c r="O160" t="s" s="2">
-        <v>786</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
@@ -22157,7 +22150,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22175,16 +22168,16 @@
         <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="AM160" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="AN160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO160" t="s" s="2">
         <v>787</v>
-      </c>
-      <c r="AM160" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="AN160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO160" t="s" s="2">
-        <v>789</v>
       </c>
       <c r="AP160" t="s" s="2">
         <v>82</v>
@@ -22192,14 +22185,14 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" t="s" s="2">
@@ -22218,16 +22211,16 @@
         <v>82</v>
       </c>
       <c r="K161" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="L161" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="M161" t="s" s="2">
         <v>792</v>
       </c>
-      <c r="L161" t="s" s="2">
+      <c r="N161" t="s" s="2">
         <v>793</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>795</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
@@ -22277,7 +22270,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22295,7 +22288,7 @@
         <v>82</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>109</v>
@@ -22304,7 +22297,7 @@
         <v>82</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>82</v>
@@ -22312,10 +22305,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22338,19 +22331,19 @@
         <v>92</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>799</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="O162" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -22399,7 +22392,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22417,10 +22410,10 @@
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>82</v>
@@ -22434,10 +22427,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22460,19 +22453,19 @@
         <v>92</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L163" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="N163" t="s" s="2">
         <v>806</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="O163" t="s" s="2">
         <v>807</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>808</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>809</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22521,7 +22514,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22539,7 +22532,7 @@
         <v>82</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>109</v>
@@ -22556,10 +22549,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22674,10 +22667,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22794,14 +22787,14 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
@@ -22823,10 +22816,10 @@
         <v>112</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N166" t="s" s="2">
         <v>115</v>
@@ -22881,7 +22874,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22916,10 +22909,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22942,16 +22935,16 @@
         <v>92</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>815</v>
       </c>
-      <c r="L167" t="s" s="2">
+      <c r="N167" t="s" s="2">
         <v>816</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>818</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" t="s" s="2">
@@ -23001,7 +22994,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>91</v>
@@ -23028,7 +23021,7 @@
         <v>82</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AP167" t="s" s="2">
         <v>82</v>
@@ -23036,10 +23029,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23065,10 +23058,10 @@
         <v>171</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -23098,10 +23091,10 @@
         <v>261</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="Z168" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>82</v>
@@ -23119,7 +23112,7 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>91</v>
@@ -23137,7 +23130,7 @@
         <v>82</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>109</v>
